--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,216 +424,101 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>PRIZE</t>
+          <t>Cell</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ODDS 1 IN:</t>
+          <t>Format</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t># OF WINNERS*</t>
+          <t>Formula</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$3</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>Percentage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>282,447</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$5</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16.66</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>154,097</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$7</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>40.01</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>64,169</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$10</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26.67</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>96,283</t>
-        </is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="C5">
+        <f>PMT(B4/12,C4,D4)</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$20</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>25,677</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>$30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>290.83</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8,829</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>$50</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>239.66</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10,714</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>$100</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>919.66</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2,792</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>$500</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>6,652.07</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>386</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>$40,000</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>855,899.99</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8225888854597</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>* Based upon 2,567,700</t>
-        </is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="C6">
+        <f>E4*C4</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrZ\Desktop\Comp.SienceProject\UrOCR\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFBFF8D-3403-46AB-994C-DCBFB085AA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +54,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,117 +360,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Cell</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Format</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Formula</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>D4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Accounting</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>E4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="C5">
-        <f>PMT(B4/12,C4,D4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>F4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="C6">
-        <f>E4*C4</f>
-        <v/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="C2" s="2">
+        <v>282447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16.66</v>
+      </c>
+      <c r="C3" s="2">
+        <v>154097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40.01</v>
+      </c>
+      <c r="C4" s="2">
+        <v>64169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1">
+        <v>26.67</v>
+      </c>
+      <c r="C5" s="2">
+        <v>96283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>234</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>290.83</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1">
+        <v>239.66</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>230</v>
+      </c>
+      <c r="B9" s="1">
+        <v>919.66</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>400</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6652.07</v>
+      </c>
+      <c r="C10" s="1">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/results/output.xlsx
+++ b/results/output.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrZ\Desktop\Comp.SienceProject\UrOCR\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFBFF8D-3403-46AB-994C-DCBFB085AA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,25 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,123 +408,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Cell</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9.09</v>
-      </c>
-      <c r="C2" s="2">
-        <v>282447</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>16.66</v>
-      </c>
-      <c r="C3" s="2">
-        <v>154097</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>40.01</v>
-      </c>
-      <c r="C4" s="2">
-        <v>64169</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Accounting</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>90</v>
-      </c>
-      <c r="B5" s="1">
-        <v>26.67</v>
-      </c>
-      <c r="C5" s="2">
-        <v>96283</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="C5">
+        <f>PMT(B4/12,C4,D4)</f>
+        <v/>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>234</v>
-      </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>25677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1">
-        <v>290.83</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1">
-        <v>239.66</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>230</v>
-      </c>
-      <c r="B9" s="1">
-        <v>919.66</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>400</v>
-      </c>
-      <c r="B10" s="3">
-        <v>6652.07</v>
-      </c>
-      <c r="C10" s="1">
-        <v>386</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="C6">
+        <f>E4*C4</f>
+        <v/>
       </c>
     </row>
   </sheetData>
